--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="18" activeTab="34"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="15" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1672">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -6007,6 +6007,40 @@
     <t>Polymere aus Monomeren Glucuronsäure (GlcA) &amp; N-Acetyl-D-glucosamin
 Hauptbestandteil der Synovia (Gelenkflüssigkeit) -&gt; Schmiermittel
 Augentropfen</t>
+  </si>
+  <si>
+    <t>Melamin</t>
+  </si>
+  <si>
+    <t>HPVC</t>
+  </si>
+  <si>
+    <t>SIDS</t>
+  </si>
+  <si>
+    <t>High Production Volume Chemical</t>
+  </si>
+  <si>
+    <t>OECD -&gt; Screening Information Dataset</t>
+  </si>
+  <si>
+    <t>2,4,6-Triamino-1,3,5-triazin
+Melaminharze (Leime, Klebstoffe) &amp; Duroplaste
+HPVC + SIDS
+Milch-Skandal -&gt; China -&gt; Stickstoff -&gt; täuscht höheren Protein-Gehalt vor -&gt; Gefahr von Nierensteinen (300k Erkrankungen)</t>
+  </si>
+  <si>
+    <t>Cyanursäure</t>
+  </si>
+  <si>
+    <t>2,4,6-Trihydroxy-1,3,5-triazin -&gt; wie 3 Cyansäuren
+außerhalb Körper -&gt; Zersetzung Melamin -&gt; verunreinigtes Melamin -&gt; eigentliche Ursache</t>
+  </si>
+  <si>
+    <t>Cyansäure</t>
+  </si>
+  <si>
+    <t>&lt;-&gt; Cyanwasserstoff (Blausäure)</t>
   </si>
 </sst>
 </file>
@@ -12730,8 +12764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12876,20 +12910,45 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1665</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1669</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -13090,9 +13149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="15" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="1" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="work" sheetId="1" r:id="rId15"/>
     <sheet name="physio" sheetId="40" r:id="rId16"/>
     <sheet name="heme" sheetId="42" r:id="rId17"/>
-    <sheet name="alltag (2)" sheetId="46" r:id="rId18"/>
-    <sheet name="alltag" sheetId="29" r:id="rId19"/>
+    <sheet name="alltag" sheetId="29" r:id="rId18"/>
+    <sheet name="Kampf" sheetId="47" r:id="rId19"/>
     <sheet name="amino" sheetId="11" r:id="rId20"/>
     <sheet name="home" sheetId="4" r:id="rId21"/>
     <sheet name="elemente" sheetId="5" r:id="rId22"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1696">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -1265,12 +1265,6 @@
   </si>
   <si>
     <t>Ethylalkohol = Ethanol =Alkohol</t>
-  </si>
-  <si>
-    <t>Phosgen</t>
-  </si>
-  <si>
-    <t>Carbonylchlorid; in Lungenbläschen zu CO2 und HCl</t>
   </si>
   <si>
     <t>Ether</t>
@@ -6041,6 +6035,122 @@
   </si>
   <si>
     <t>&lt;-&gt; Cyanwasserstoff (Blausäure)</t>
+  </si>
+  <si>
+    <t>Sarin Wirkung</t>
+  </si>
+  <si>
+    <t>Sarin Abwehr</t>
+  </si>
+  <si>
+    <t>Sarin Chemie</t>
+  </si>
+  <si>
+    <t>Methyl-fluor-phosphonsäure-iso-propyl-ester
+chemischer Kampfstoff -&gt; Gruppe Phosphonsäureester (H3PO3)
+flüssig, farb- und geruchlos, leichtflüchtig
+1938 -&gt; Insektizid -&gt; I.G. Farben -&gt; Buchstaben -&gt; Schrader, Ambros, Ritter &amp; von der Linde
+Kalter Krieg - Chile - Irak - Tokyo-Attentat - Syrien</t>
+  </si>
+  <si>
+    <t>Cholinesteraseinhibitoren -&gt; Synapsen -&gt; Acetylcholinesterase -&gt; blockiert -&gt; 
+-&gt; parasympathischen vegetativen &amp; acetylcholinvermittelten Synapsen des Sympathikus &amp; neuromuskulären bzw. motorischen Endplatten
+-&gt; Dauererregung -&gt; Nasenlaufen, Sehstörungen, Pupillenverengung, Krämpfe, Schweißausbrüche, zentrale und periphere Atemlähmung und Tod</t>
+  </si>
+  <si>
+    <t>vor Kampfstoffeinsatz -&gt; Oxim-Tabletten oder Carbamate wie Pyridostigmin oder Physostigmin
+Augen, Haut &amp; Atmungsorgane -&gt; Ganzkörper-Schutzanzug mit Atemschutzmaske
+Auge -&gt; schon bei geringeren Konzentrationen -&gt; Akkommodationsstörungen
+Atropin (vgl. Hyoscyamin, Gift der Tollkirsche) -&gt; ein Parasympatholytikum -&gt; Wirkung des Überangebotes an Rezeptoren aufheben
+Obidoxim (amerik. eher Pralidoxim) -&gt; nicht oder nur sehr langsam von dem blockierten Enzym lösen -&gt; Wochen</t>
+  </si>
+  <si>
+    <t>Sarin Dekontamination</t>
+  </si>
+  <si>
+    <t>DFPase</t>
+  </si>
+  <si>
+    <t>Oxidationsmitteln -&gt; Chlorkalk &amp; Calciumhypochlorit
+basisches Milieu -&gt; hydrolysiert -&gt; alkalische Lösungen &amp; nichtwässrige Medien (Ethanolamin).
+empfindliche Oberflächen -&gt; Natriumcarbonatlösung -&gt; langsamer
+Enzyme -&gt; e.g. DFPase -&gt; vollständig hydrolysiert -&gt; schnell -&gt; andere Kampfstoffe der G-Reihe</t>
+  </si>
+  <si>
+    <t>Diisopropylfluorphosphatase, EC 3.1.8.2 -&gt; Gemeinen Kalmars (Loligo vulgaris)
+natürlicher Nutzen -&gt; unbekannt</t>
+  </si>
+  <si>
+    <t>Sarin Verarbeitung</t>
+  </si>
+  <si>
+    <t>chemisch verwandt -&gt; Kampfstoffe Tabun, Soman &amp; VX -&gt; Insektizide Parathion (E605) -&gt; Sarin 1000-fach wirksamer als E605
+Binärkampfstoff-Geschossen -&gt; nach Abschuss -&gt; Methylphosphonsäure-di-fluorid &amp; Hinzufügen von Isopropanol
+Analytik -&gt; Kampfstoff -&gt; HPLC -&gt; Urin- / Blutproben -&gt; Metaboliten -&gt; GC-MS-Analyse
+Vernichtungskonzepte -&gt; teuer -&gt; Temperatur &amp; Oxidationsmittel (Wasserstoffperoxid)</t>
+  </si>
+  <si>
+    <t>Kampfstoff Kontrolle</t>
+  </si>
+  <si>
+    <t>Phosgene</t>
+  </si>
+  <si>
+    <t>COCl2 (Carbonylchlorid) -&gt; in Lungenbläschen zu CO2 und HCl
+colorless gas -&gt; World War -&gt; low concentrations -&gt; odor resembles freshly cut hay
+production of isocyanates -&gt; toluene diisocyanate (TDI) &amp; methylene diphenyl diisocyanate (MDI) -&gt; precursors to polyurethanes</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>Triethanolamine -&gt; tertiary amine &amp; triol -&gt; strong base
+emulsifier ("emulgent") -&gt; stabilizes emulsion -&gt; increases its kinetic stability
+surfactants -&gt; lower the surface tension -&gt; detergents, wetting agents, emulsifiers, foaming agents, and dispersants
+-&gt; cement &amp; cosmetics &amp; ear drops
+-&gt; electroless plating</t>
+  </si>
+  <si>
+    <t>Galvanisierung
+dissolved metal cations -&gt; form metal coating on electrode
+electroless plating -&gt; one electrode &amp; reducing agent (&amp; no external current)</t>
+  </si>
+  <si>
+    <t>electroplating</t>
+  </si>
+  <si>
+    <t>CWC -&gt; Chemical Weapons Convention -&gt; 1997
+CWK -&gt; Chemiewaffenkonvention (auch CWÜ Chemiewaffenübereinkommen)
+arms control treaty -&gt; production, stockpiling, and use -&gt; chemical weapons and precursors
+Überwachung -&gt; OPCW (Organisation for the Prohibition of Chemical Weapons) -&gt; Den Haag (The Hague)
+Schedule 1 chemicals (Chemikalien der Liste 1) -&gt; few, or no uses outside chemical weapon .. 
+Schedule 3 -&gt; large-scale uses -&gt; phosgene &amp; triethanolamine (nitrogen mustard but also detergents)</t>
+  </si>
+  <si>
+    <t>ballistische Rakete</t>
+  </si>
+  <si>
+    <t>Navi</t>
+  </si>
+  <si>
+    <t>russisches GLONASS &amp; US-amerikanischen GPS &amp; europäischen Galileo-System &amp; chinesischen Beidou
+Regelbetrieb -&gt; 24 Satelliten -&gt; vier an einem Ort sichtbar
+Höhe (Schiff auf dem Meer) der Ort (geographische Breite und Länge) und die Zeit (-&gt; Zeitfehler Mikrosekunde -&gt; Ortsfehler 300 m)</t>
+  </si>
+  <si>
+    <t>Глоба́льная навигацио́нная спу́тниковая систе́ма -&gt; Globales Satellitennavigationssystem
+2008 -&gt; ersten zivilen kommerziellen Geräte -&gt; 2011 ZTE Smartphone</t>
+  </si>
+  <si>
+    <t>ГЛО-НА-СС
+GLONASS</t>
+  </si>
+  <si>
+    <t>ballistic missile -&gt; Ziel (im Wesentlichen) auf Wurfparabel
+Zielausrichtung beim Start &amp; in der Startphase angetrieben -&gt; Steuerungen &amp; Satellitennavigation -&gt; kein Tragwerk, kein Marschtriebwerk
+CEP (Circular Error Probable) -&gt; um Zielpunkt 50 Prozent der Flugkörper -&gt; genauesten Interkontinentalraketen -&gt; CEP = 100 m
+Unterschied zu Marschflugkörpern und Lenkwaffen
+Weiterentwicklung -&gt; steuerbare Gefechtsköpfe</t>
   </si>
 </sst>
 </file>
@@ -6982,107 +7092,107 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>917</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>918</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="C5" t="s">
         <v>926</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="C5" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="C6" t="s">
         <v>929</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="C6" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C7" t="s">
         <v>1294</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="C11" t="s">
         <v>936</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="C11" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7124,8 +7234,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7136,282 +7246,282 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1529</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1530</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7442,226 +7552,226 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1569</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1566</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7693,114 +7803,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1601</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1602</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1641</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1642</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7832,10 +7942,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7843,34 +7953,34 @@
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -7912,250 +8022,250 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1510</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -8355,34 +8465,34 @@
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
   </sheetData>
@@ -8407,122 +8517,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1457</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -8547,282 +8657,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1500</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +8946,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8847,66 +8957,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -8917,11 +9027,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8929,68 +9037,108 @@
     <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1030</v>
+        <v>1672</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1031</v>
+        <v>1670</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1033</v>
+        <v>1671</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1043</v>
+        <v>1676</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1034</v>
+        <v>1677</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1041</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1035</v>
+        <v>1680</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1036</v>
+        <v>1682</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1039</v>
+        <v>1683</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1040</v>
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1692</v>
       </c>
     </row>
   </sheetData>
@@ -9015,221 +9163,221 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -9255,10 +9403,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -9290,7 +9438,7 @@
         <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -9319,10 +9467,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -9330,23 +9478,23 @@
         <v>328</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -9354,7 +9502,7 @@
         <v>327</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9362,95 +9510,95 @@
         <v>329</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9458,7 +9606,7 @@
         <v>256</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9466,175 +9614,175 @@
         <v>255</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -9642,95 +9790,95 @@
         <v>253</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -9807,7 +9955,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10031,7 +10179,7 @@
         <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10095,7 +10243,7 @@
         <v>194</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10167,55 +10315,55 @@
         <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10319,7 +10467,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10500,26 +10648,26 @@
     </row>
     <row r="31" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
   </sheetData>
@@ -10602,7 +10750,7 @@
         <v>273</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10618,7 +10766,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10658,7 +10806,7 @@
         <v>284</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10730,7 +10878,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -10799,7 +10947,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10839,7 +10987,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10855,7 +11003,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10948,82 +11096,82 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
   </sheetData>
@@ -11046,410 +11194,410 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
   </sheetData>
@@ -11472,26 +11620,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11529,154 +11677,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -11713,66 +11861,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1612</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11961,34 +12109,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12016,96 +12164,96 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>999</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12210,34 +12358,34 @@
     </row>
     <row r="6" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -12245,7 +12393,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12253,7 +12401,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12266,7 +12414,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -12274,10 +12422,10 @@
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -12285,7 +12433,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -12298,127 +12446,127 @@
     </row>
     <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -12447,154 +12595,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1366</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1367</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1374</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12664,50 +12812,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12764,8 +12912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12776,10 +12924,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12787,167 +12935,167 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1663</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1664</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -12993,7 +13141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13003,90 +13153,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13149,7 +13299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13159,170 +13311,170 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1351</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -13397,106 +13549,106 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13558,10 +13710,10 @@
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle11"/>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13612,7 +13764,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>372</v>
@@ -13647,7 +13799,7 @@
         <v>376</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -13658,7 +13810,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>381</v>
       </c>
@@ -13666,71 +13818,71 @@
         <v>382</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>455</v>
+        <v>591</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>593</v>
       </c>
@@ -13746,16 +13898,8 @@
         <v>596</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13780,122 +13924,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" t="s">
         <v>546</v>
-      </c>
-      <c r="B5" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B15" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -13978,138 +14122,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14117,31 +14261,31 @@
         <v>2005</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14169,69 +14313,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -14263,42 +14407,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -14387,7 +14531,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14398,150 +14542,150 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -14566,175 +14710,175 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>1066</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1068</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14769,45 +14913,45 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14874,114 +15018,114 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1395</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1396</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
@@ -15015,282 +15159,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>646</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,56 +4,57 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="1" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
-    <sheet name="instr ana" sheetId="22" r:id="rId2"/>
-    <sheet name="MB" sheetId="25" r:id="rId3"/>
-    <sheet name="synth bio" sheetId="21" r:id="rId4"/>
-    <sheet name="citric cycle" sheetId="19" r:id="rId5"/>
-    <sheet name="hormones" sheetId="30" r:id="rId6"/>
-    <sheet name="Zellen" sheetId="27" r:id="rId7"/>
-    <sheet name="signals" sheetId="39" r:id="rId8"/>
-    <sheet name="mTOR" sheetId="18" r:id="rId9"/>
-    <sheet name="molek bio" sheetId="13" r:id="rId10"/>
-    <sheet name="bsp IUPAC" sheetId="23" r:id="rId11"/>
-    <sheet name="vitamins" sheetId="44" r:id="rId12"/>
-    <sheet name="tissue" sheetId="17" r:id="rId13"/>
-    <sheet name="Grundlagen" sheetId="15" r:id="rId14"/>
-    <sheet name="work" sheetId="1" r:id="rId15"/>
-    <sheet name="physio" sheetId="40" r:id="rId16"/>
-    <sheet name="heme" sheetId="42" r:id="rId17"/>
-    <sheet name="alltag" sheetId="29" r:id="rId18"/>
-    <sheet name="Kampf" sheetId="47" r:id="rId19"/>
-    <sheet name="amino" sheetId="11" r:id="rId20"/>
-    <sheet name="home" sheetId="4" r:id="rId21"/>
-    <sheet name="elemente" sheetId="5" r:id="rId22"/>
-    <sheet name="elemente REE" sheetId="9" r:id="rId23"/>
-    <sheet name="merksätze" sheetId="7" r:id="rId24"/>
-    <sheet name="c sharp" sheetId="34" r:id="rId25"/>
-    <sheet name="WPF" sheetId="36" r:id="rId26"/>
-    <sheet name="bio" sheetId="35" r:id="rId27"/>
-    <sheet name="bio (2)" sheetId="45" r:id="rId28"/>
-    <sheet name="analytische" sheetId="8" r:id="rId29"/>
-    <sheet name="anorg" sheetId="10" r:id="rId30"/>
-    <sheet name="verfahren" sheetId="32" r:id="rId31"/>
-    <sheet name="geologie" sheetId="33" r:id="rId32"/>
-    <sheet name="polymere" sheetId="31" r:id="rId33"/>
-    <sheet name="org" sheetId="28" r:id="rId34"/>
-    <sheet name="pharma" sheetId="38" r:id="rId35"/>
-    <sheet name="gemisch" sheetId="26" r:id="rId36"/>
-    <sheet name="lab" sheetId="12" r:id="rId37"/>
-    <sheet name="math" sheetId="14" r:id="rId38"/>
-    <sheet name="energie" sheetId="16" r:id="rId39"/>
-    <sheet name="schiff" sheetId="43" r:id="rId40"/>
+    <sheet name="CRM-SEA" sheetId="48" r:id="rId2"/>
+    <sheet name="instr ana" sheetId="22" r:id="rId3"/>
+    <sheet name="MB" sheetId="25" r:id="rId4"/>
+    <sheet name="synth bio" sheetId="21" r:id="rId5"/>
+    <sheet name="citric cycle" sheetId="19" r:id="rId6"/>
+    <sheet name="hormones" sheetId="30" r:id="rId7"/>
+    <sheet name="Zellen" sheetId="27" r:id="rId8"/>
+    <sheet name="signals" sheetId="39" r:id="rId9"/>
+    <sheet name="mTOR" sheetId="18" r:id="rId10"/>
+    <sheet name="molek bio" sheetId="13" r:id="rId11"/>
+    <sheet name="bsp IUPAC" sheetId="23" r:id="rId12"/>
+    <sheet name="vitamins" sheetId="44" r:id="rId13"/>
+    <sheet name="tissue" sheetId="17" r:id="rId14"/>
+    <sheet name="Grundlagen" sheetId="15" r:id="rId15"/>
+    <sheet name="work" sheetId="1" r:id="rId16"/>
+    <sheet name="physio" sheetId="40" r:id="rId17"/>
+    <sheet name="heme" sheetId="42" r:id="rId18"/>
+    <sheet name="alltag" sheetId="29" r:id="rId19"/>
+    <sheet name="Kampf" sheetId="47" r:id="rId20"/>
+    <sheet name="amino" sheetId="11" r:id="rId21"/>
+    <sheet name="home" sheetId="4" r:id="rId22"/>
+    <sheet name="elemente" sheetId="5" r:id="rId23"/>
+    <sheet name="elemente REE" sheetId="9" r:id="rId24"/>
+    <sheet name="merksätze" sheetId="7" r:id="rId25"/>
+    <sheet name="c sharp" sheetId="34" r:id="rId26"/>
+    <sheet name="WPF" sheetId="36" r:id="rId27"/>
+    <sheet name="bio" sheetId="35" r:id="rId28"/>
+    <sheet name="bio (2)" sheetId="45" r:id="rId29"/>
+    <sheet name="analytische" sheetId="8" r:id="rId30"/>
+    <sheet name="anorg" sheetId="10" r:id="rId31"/>
+    <sheet name="verfahren" sheetId="32" r:id="rId32"/>
+    <sheet name="geologie" sheetId="33" r:id="rId33"/>
+    <sheet name="polymere" sheetId="31" r:id="rId34"/>
+    <sheet name="org" sheetId="28" r:id="rId35"/>
+    <sheet name="pharma" sheetId="38" r:id="rId36"/>
+    <sheet name="gemisch" sheetId="26" r:id="rId37"/>
+    <sheet name="lab" sheetId="12" r:id="rId38"/>
+    <sheet name="math" sheetId="14" r:id="rId39"/>
+    <sheet name="energie" sheetId="16" r:id="rId40"/>
+    <sheet name="schiff" sheetId="43" r:id="rId41"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="1739">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -1321,10 +1322,6 @@
   </si>
   <si>
     <t>Benzoesäure</t>
-  </si>
-  <si>
-    <t>= Benzencarbonsäure 
-Phenylrest &amp; Carboxygruppe; aromatische Carbonsäure</t>
   </si>
   <si>
     <t xml:space="preserve">= Benzenol; Hydroxygruppe an aromatischen Ring </t>
@@ -2392,10 +2389,6 @@
     <t>Gallenblase</t>
   </si>
   <si>
-    <t>Vesica fellea, vesica biliaris, lat. vesica ‚Blase‘ fellis = bilis ‚Galle‘
-cholecyst, gall bladder, biliary vesicle</t>
-  </si>
-  <si>
     <t>Cholezystektomie</t>
   </si>
   <si>
@@ -2410,11 +2403,6 @@
   </si>
   <si>
     <t>Gliazelle</t>
-  </si>
-  <si>
-    <t>glia gr Leim; neuroglia cells
-Stützgerüst, Isolation, nutrients; auch Info
-ektodermalen Keimblatt</t>
   </si>
   <si>
     <t>Oligodendrozyten</t>
@@ -2436,13 +2424,7 @@
     <t>putative</t>
   </si>
   <si>
-    <t>pu-tative; supposed, not by proof</t>
-  </si>
-  <si>
     <t>Mandelsäure</t>
-  </si>
-  <si>
-    <t>α-Hydroxyphenylessigsäure; s. Endprodukt Adrenalin-Abbau</t>
   </si>
   <si>
     <t>Carbamidsäure</t>
@@ -3220,9 +3202,6 @@
     <t>primordial</t>
   </si>
   <si>
-    <t>ursprünglich</t>
-  </si>
-  <si>
     <t>to abstract</t>
   </si>
   <si>
@@ -5292,9 +5271,6 @@
   </si>
   <si>
     <t>Bilane</t>
-  </si>
-  <si>
-    <t>Gallenfarbstoffe</t>
   </si>
   <si>
     <t>Urobilinogen</t>
@@ -6096,19 +6072,7 @@
     <t>Phosgene</t>
   </si>
   <si>
-    <t>COCl2 (Carbonylchlorid) -&gt; in Lungenbläschen zu CO2 und HCl
-colorless gas -&gt; World War -&gt; low concentrations -&gt; odor resembles freshly cut hay
-production of isocyanates -&gt; toluene diisocyanate (TDI) &amp; methylene diphenyl diisocyanate (MDI) -&gt; precursors to polyurethanes</t>
-  </si>
-  <si>
     <t>TEA</t>
-  </si>
-  <si>
-    <t>Triethanolamine -&gt; tertiary amine &amp; triol -&gt; strong base
-emulsifier ("emulgent") -&gt; stabilizes emulsion -&gt; increases its kinetic stability
-surfactants -&gt; lower the surface tension -&gt; detergents, wetting agents, emulsifiers, foaming agents, and dispersants
--&gt; cement &amp; cosmetics &amp; ear drops
--&gt; electroless plating</t>
   </si>
   <si>
     <t>Galvanisierung
@@ -6151,6 +6115,208 @@
 CEP (Circular Error Probable) -&gt; um Zielpunkt 50 Prozent der Flugkörper -&gt; genauesten Interkontinentalraketen -&gt; CEP = 100 m
 Unterschied zu Marschflugkörpern und Lenkwaffen
 Weiterentwicklung -&gt; steuerbare Gefechtsköpfe</t>
+  </si>
+  <si>
+    <t>Gallenfarbstoffe (bile en Galle)</t>
+  </si>
+  <si>
+    <t>Anorganische
+Säurehalogenide</t>
+  </si>
+  <si>
+    <t>Säure -&gt; anorganischer + sauerstoffhaltiger -&gt; Derivat
+Hydroxygruppe –OH -&gt; Ersatz -&gt; Halogenatom (Fluor, Chlor, Brom oder Iod)
+reagieren mit Wasser, meist heftig
+Carbonsäurehalogenide = Alkanoylhalogenide -&gt; Carbonylgruppe stärker positiv geladen -&gt; deutlich reaktiver</t>
+  </si>
+  <si>
+    <t>COCl2 (Carbonylchlorid) -&gt; in Lungenbläschen zu CO2 und HCl
+Dichlorid (=Halogenid) der Kohlensäure (s.a. Harnstoff -&gt; Di-Amid)
+colorless gas -&gt; World War -&gt; low concentrations -&gt; odor resembles freshly cut hay
+production of isocyanates -&gt; toluene diisocyanate (TDI) &amp; methylene diphenyl diisocyanate (MDI) -&gt; precursors to polyurethanes</t>
+  </si>
+  <si>
+    <t>= Benzencarbonsäure (IUPAC)
+Phenylrest &amp; Carboxygruppe; aromatische Carbonsäure
+Benzoe(harz) = ausfließender Gummi des Benzoebaumes (South-East-Asia)
+russisch-orthodoxen Kirche -&gt; Kirchen-Weihrauchs
+bakteriostatisch &amp; fungistatisch (statisch -&gt; wachstumshemmend)
+Natriumbenzoat -&gt; im Cola -&gt; ADHS</t>
+  </si>
+  <si>
+    <t>Senfgas = S-Lost</t>
+  </si>
+  <si>
+    <t>Triethanolamine -&gt; tertiary amine &amp; triol -&gt; strong base
+Ausgangsstoff N-Lost = HN-3 = Trichlormethin
+emulsifier ("emulgent") -&gt; stabilizes emulsion -&gt; increases its kinetic stability
+surfactants -&gt; lower the surface tension -&gt; detergents, wetting agents, emulsifiers, foaming agents, and dispersants
+-&gt; cement &amp; cosmetics &amp; ear drops
+-&gt; electroless plating</t>
+  </si>
+  <si>
+    <t>Lost -&gt; Wilhelm Lommel und Wilhelm Steinkopf (Mitarbeiter von Fritz Haber)
+Bis(2-chlorethyl)sulfid
+eigentlich Aerosol
+knoblauchähnliche Geruch -&gt; Schwefel-Verunreinigung</t>
+  </si>
+  <si>
+    <t>Ventrikel</t>
+  </si>
+  <si>
+    <t>Ventriculus lt „kleiner Bauch“ -&gt; Medizin -&gt; Organe, die Hohlraum (= Kammer/Ausbuchtung) bilden
+v. cordis = rechte und linke Herzkammer
+v. cerebri = Gehirnkammer oder Hirnventrikel</t>
+  </si>
+  <si>
+    <t>Vesica fellea = vesica biliaris, vesica lt ‚Blase‘ fellis = bilis ‚Galle‘
+en: gall bladder = cholecyst = biliary vesicle</t>
+  </si>
+  <si>
+    <t>glia gr Leim; neuroglia cells
+strukturell &amp; funktionell von den Nervenzellen (Neuronen) abgrenzbar
+Stützgerüst, Isolation, nutrients; auch Info
+ektodermalen Keimblatt</t>
+  </si>
+  <si>
+    <t>pu-tative; supposed, not by proof, vermeintlich
+putare lt glauben</t>
+  </si>
+  <si>
+    <t>Mandelsäure
+mandelic acid</t>
+  </si>
+  <si>
+    <t>2-Hydroxy-2-phenylethansäure (IUPAC) = α-Hydroxyphenylessigsäure; 
+Entdeckt in Mandeln, s.a. Endprodukt Adrenalin-Abbau
+Streptokokken, Staphylokokken &amp; Colibakterien -&gt; bakteriostat bzw. bakteriozid
+Styrol-Belastungen in der Atemluft (Kunststoffproduktion) -&gt; Mandelsäure-Werte im Urin
+mit racemischen Aminen -&gt; diastereomere Salze -&gt; fraktionierende Kristallisation -&gt; Base -&gt; enantiomerenreines Amin</t>
+  </si>
+  <si>
+    <t>ordo lt „Reihenfolge“ =primeval -&gt; primus ‎(“first”) + aevum ‎(“time, age”)</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>ursprünglich 
+essential</t>
+  </si>
+  <si>
+    <t>enclosure (prison)
+group of buildings
+made by combining</t>
+  </si>
+  <si>
+    <t>chemical union of two or more ingredients in definite proportions</t>
+  </si>
+  <si>
+    <t>incinerate</t>
+  </si>
+  <si>
+    <t>destroy by burning</t>
+  </si>
+  <si>
+    <t>cinis (lt) “ashes”</t>
+  </si>
+  <si>
+    <t>passiv: enrichment
+activ: transformation process</t>
+  </si>
+  <si>
+    <t>concentrat-ing
+concentrat-ion</t>
+  </si>
+  <si>
+    <t>MFA</t>
+  </si>
+  <si>
+    <t>material flow analysis</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>resources
+pollutants -&gt; hazardous substance</t>
+  </si>
+  <si>
+    <t>material balance</t>
+  </si>
+  <si>
+    <t>internal stock</t>
+  </si>
+  <si>
+    <t>available mass (m), change in that mass (m')</t>
+  </si>
+  <si>
+    <t>material flow</t>
+  </si>
+  <si>
+    <t>mass flow * concentration</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>1865 -&gt; Clausius -&gt; Thermodynamic Entropy "S"
+Boltzman -&gt; Statistical Description -&gt; H-Theorem
+1940 -&gt; Shannon -&gt; apply H-Theorem to Information -&gt; Shannon's Statistical Entropy "H"</t>
+  </si>
+  <si>
+    <t>substance concentration in those goods
+mass flow of all goods</t>
+  </si>
+  <si>
+    <t>Statistical Entropy</t>
+  </si>
+  <si>
+    <t>SE for MF</t>
+  </si>
+  <si>
+    <t>Quantify particular distribution (&lt;-&gt; qualify -&gt; e.g. uniform, normal, etc.)</t>
+  </si>
+  <si>
+    <t>geogenic</t>
+  </si>
+  <si>
+    <t>naturally occuring -&gt; athmosphere, hydrosphere</t>
+  </si>
+  <si>
+    <t>geosphere</t>
+  </si>
+  <si>
+    <t>lithosphere + lower layers</t>
+  </si>
+  <si>
+    <t>First -&gt; replace p by cij/cj (=relative concentration) -&gt; "info" content &amp; Normalize H -&gt; [0,1]
+Second -&gt; weight with mass flow m_dot -&gt; frequency of "occurence"
+X_dot -&gt; substance flow (&lt;&lt; mass flow)
+Third -&gt; dilution of gaseous &amp; aquaeus outputs -&gt; 1/100</t>
+  </si>
+  <si>
+    <t>pmf pdf</t>
+  </si>
+  <si>
+    <t>probabilty functions
+discrete -&gt; mass
+continuous -&gt; distribution</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>substancia lt Wesen</t>
+  </si>
+  <si>
+    <t>recidivists</t>
+  </si>
+  <si>
+    <t>Rückfalltäter</t>
+  </si>
+  <si>
+    <t>Blues Brothers</t>
   </si>
 </sst>
 </file>
@@ -7081,7 +7247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7092,107 +7260,142 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>1704</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1702</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="C5" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="C6" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C7" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C11" t="s">
-        <v>936</v>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7231,11 +7434,320 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7246,282 +7758,282 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7536,7 +8048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -7552,226 +8064,226 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7787,12 +8299,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7803,114 +8315,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1654</v>
+        <v>1647</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1655</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,7 +8438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
@@ -7942,10 +8454,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,34 +8465,34 @@
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>638</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -8005,7 +8517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:B52"/>
@@ -8022,250 +8534,250 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>565</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>578</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -8280,7 +8792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:B26"/>
@@ -8465,34 +8977,34 @@
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -8501,7 +9013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -8517,122 +9029,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
     </row>
   </sheetData>
@@ -8641,12 +9153,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8657,282 +9169,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1465</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1468</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1469</v>
+        <v>1462</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1470</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1471</v>
+        <v>1464</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1473</v>
+        <v>1466</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1474</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1484</v>
+        <v>1477</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1485</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1481</v>
+        <v>1474</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1483</v>
+        <v>1476</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1486</v>
+        <v>1479</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1487</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1488</v>
+        <v>1481</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1489</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1490</v>
+        <v>1483</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
     </row>
   </sheetData>
@@ -8941,13 +9453,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8957,188 +9467,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1680</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1683</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1688</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1694</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1691</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1692</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -9149,10 +9537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9163,222 +9551,148 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>804</v>
+        <v>1712</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>806</v>
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1711</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1297</v>
+        <v>1710</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>807</v>
+        <v>1714</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>808</v>
+        <v>1715</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+        <v>1716</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1298</v>
+        <v>1719</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1717</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>811</v>
+        <v>1721</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>813</v>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1724</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>816</v>
+        <v>1725</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1731</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>817</v>
+        <v>1729</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>821</v>
+        <v>1732</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>823</v>
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="132" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>992</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -9388,11 +9702,151 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9438,7 +9892,7 @@
         <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -9467,10 +9921,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -9478,7 +9932,7 @@
         <v>328</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -9486,15 +9940,15 @@
         <v>390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -9502,7 +9956,7 @@
         <v>327</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -9510,95 +9964,95 @@
         <v>329</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>420</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9606,7 +10060,7 @@
         <v>256</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9614,175 +10068,175 @@
         <v>255</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -9790,95 +10244,95 @@
         <v>253</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -9887,13 +10341,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9955,7 +10409,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10179,7 +10633,7 @@
         <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10243,7 +10697,7 @@
         <v>194</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10315,15 +10769,15 @@
         <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>396</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>397</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10336,10 +10790,10 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10347,23 +10801,23 @@
         <v>395</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10391,14 +10845,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10467,7 +10919,7 @@
         <v>116</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10648,26 +11100,26 @@
     </row>
     <row r="31" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1631</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
     </row>
   </sheetData>
@@ -10676,7 +11128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:B29"/>
@@ -10750,7 +11202,7 @@
         <v>273</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10766,7 +11218,7 @@
         <v>276</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10806,7 +11258,7 @@
         <v>284</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10878,7 +11330,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -10927,13 +11379,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10947,7 +11399,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10987,7 +11439,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -11003,7 +11455,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11096,82 +11548,82 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
     </row>
   </sheetData>
@@ -11180,7 +11632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -11194,410 +11646,410 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -11606,7 +12058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -11620,26 +12072,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -11663,7 +12115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -11677,154 +12129,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -11845,7 +12297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
@@ -11861,66 +12313,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -11932,7 +12384,244 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="132" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:B27"/>
@@ -12109,34 +12798,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12148,160 +12837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>997</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1621</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:B39"/>
@@ -12358,7 +12894,7 @@
     </row>
     <row r="6" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>389</v>
@@ -12366,26 +12902,26 @@
     </row>
     <row r="7" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
@@ -12393,7 +12929,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12401,7 +12937,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12414,7 +12950,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -12422,10 +12958,10 @@
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -12433,7 +12969,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -12446,127 +12982,127 @@
     </row>
     <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -12579,7 +13115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
@@ -12595,154 +13131,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -12796,7 +13332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -12812,50 +13348,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -12908,7 +13444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -12924,10 +13460,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -12935,167 +13471,167 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1661</v>
+        <v>1654</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1663</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1662</v>
+        <v>1655</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1664</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1666</v>
+        <v>1659</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1667</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1669</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -13137,7 +13673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -13153,90 +13689,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13295,7 +13831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -13311,170 +13847,170 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1350</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1656</v>
+        <v>1649</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1659</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1657</v>
+        <v>1650</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1658</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -13534,7 +14070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -13549,106 +14085,106 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13707,7 +14243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:B26"/>
@@ -13764,7 +14300,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>372</v>
@@ -13799,7 +14335,7 @@
         <v>376</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -13823,7 +14359,7 @@
         <v>383</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -13847,55 +14383,55 @@
         <v>388</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -13907,7 +14443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:B34"/>
@@ -13924,122 +14460,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" t="s">
         <v>541</v>
-      </c>
-      <c r="B3" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" t="s">
         <v>551</v>
-      </c>
-      <c r="B7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" t="s">
         <v>553</v>
-      </c>
-      <c r="B8" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" t="s">
         <v>555</v>
-      </c>
-      <c r="B9" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B10" t="s">
         <v>557</v>
-      </c>
-      <c r="B10" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" t="s">
         <v>567</v>
-      </c>
-      <c r="B14" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B15" t="s">
         <v>572</v>
-      </c>
-      <c r="B15" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14105,7 +14641,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:B22"/>
@@ -14122,138 +14811,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>606</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14261,31 +14950,31 @@
         <v>2005</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>634</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14297,7 +14986,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -14313,69 +15135,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -14393,140 +15215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="16"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -14542,150 +15231,150 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -14694,12 +15383,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14710,175 +15399,175 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1044</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1050</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14899,7 +15588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -14913,45 +15602,45 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15002,7 +15691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -15018,114 +15707,114 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
@@ -15136,309 +15825,6 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
@@ -32,29 +32,30 @@
     <sheet name="elemente" sheetId="5" r:id="rId23"/>
     <sheet name="elemente REE" sheetId="9" r:id="rId24"/>
     <sheet name="merksätze" sheetId="7" r:id="rId25"/>
-    <sheet name="c sharp" sheetId="34" r:id="rId26"/>
-    <sheet name="WPF" sheetId="36" r:id="rId27"/>
-    <sheet name="bio" sheetId="35" r:id="rId28"/>
-    <sheet name="bio (2)" sheetId="45" r:id="rId29"/>
-    <sheet name="analytische" sheetId="8" r:id="rId30"/>
-    <sheet name="anorg" sheetId="10" r:id="rId31"/>
-    <sheet name="verfahren" sheetId="32" r:id="rId32"/>
-    <sheet name="geologie" sheetId="33" r:id="rId33"/>
-    <sheet name="polymere" sheetId="31" r:id="rId34"/>
-    <sheet name="org" sheetId="28" r:id="rId35"/>
-    <sheet name="pharma" sheetId="38" r:id="rId36"/>
-    <sheet name="gemisch" sheetId="26" r:id="rId37"/>
-    <sheet name="lab" sheetId="12" r:id="rId38"/>
-    <sheet name="math" sheetId="14" r:id="rId39"/>
-    <sheet name="energie" sheetId="16" r:id="rId40"/>
-    <sheet name="schiff" sheetId="43" r:id="rId41"/>
+    <sheet name="Software Dev" sheetId="49" r:id="rId26"/>
+    <sheet name="c sharp" sheetId="34" r:id="rId27"/>
+    <sheet name="WPF" sheetId="36" r:id="rId28"/>
+    <sheet name="bio" sheetId="35" r:id="rId29"/>
+    <sheet name="bio (2)" sheetId="45" r:id="rId30"/>
+    <sheet name="analytische" sheetId="8" r:id="rId31"/>
+    <sheet name="anorg" sheetId="10" r:id="rId32"/>
+    <sheet name="verfahren" sheetId="32" r:id="rId33"/>
+    <sheet name="geologie" sheetId="33" r:id="rId34"/>
+    <sheet name="polymere" sheetId="31" r:id="rId35"/>
+    <sheet name="org" sheetId="28" r:id="rId36"/>
+    <sheet name="pharma" sheetId="38" r:id="rId37"/>
+    <sheet name="gemisch" sheetId="26" r:id="rId38"/>
+    <sheet name="lab" sheetId="12" r:id="rId39"/>
+    <sheet name="math" sheetId="14" r:id="rId40"/>
+    <sheet name="energie" sheetId="16" r:id="rId41"/>
+    <sheet name="schiff" sheetId="43" r:id="rId42"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1763">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -2522,9 +2523,6 @@
 e.g. Schwefel Sn-Ringe</t>
   </si>
   <si>
-    <t>Aconitat</t>
-  </si>
-  <si>
     <t>Aconitase</t>
   </si>
   <si>
@@ -2536,11 +2534,6 @@
   </si>
   <si>
     <t>Malonsäure</t>
-  </si>
-  <si>
-    <t>malus lt. Apfel (Pflanzengattung)
-Zellgift (hemmt citric cycle)
-im Zuckerrübensaft; entdeckt durch Oxidation von Äpfelsäure (Achtung: Butan-disäure)</t>
   </si>
   <si>
     <t>Propandisäure -&gt; Malonat (Malonsäure)
@@ -2556,16 +2549,6 @@
   <si>
     <t>sodium 
 monofluoroacetate</t>
-  </si>
-  <si>
-    <t>Giftköder Nagetiere -&gt; 0,1mg/kg
-predacide for wolves and coyotes -&gt; livestock protection collars
-secondary toxicity to predator/scavenger birds and mammals
-slightly to practically non-toxic to aquatic invertebrates and fish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFA (mono-fluor-acetic-acid);
-Fluoracetyl-CoA statt Acetyl-CoA im Citratzyklus -&gt; Citrat-Synthese funktioniert -&gt; Enzymblockade Citrat/cis-Aconit </t>
   </si>
   <si>
     <t>anaplerotisch
@@ -2630,10 +2613,6 @@
     <t>Enzymhemmung</t>
   </si>
   <si>
-    <t>reversibel / irreversibel / allosterisch (=am anderen Ort, im allosterischen Zentrum, nicht im aktiven)
-kompetetiv / nicht-kompetetiv / unkompetetiv / Substratüberschuss</t>
-  </si>
-  <si>
     <t>Dinitrophenol
 2,4</t>
   </si>
@@ -2759,23 +2738,11 @@
     <t>Selektivität</t>
   </si>
   <si>
-    <t>Spezifität</t>
-  </si>
-  <si>
-    <t>correct rejection = kein Fehlstart, kein Phantomschmerz</t>
-  </si>
-  <si>
     <t>Gütekritierien</t>
   </si>
   <si>
     <t>Sensitivität &lt;-&gt; Spezifität … binäre Klassifikation
 Fehler 1. Art &lt;-&gt; Fehler 2. Art … statistischer Test</t>
-  </si>
-  <si>
-    <t>Übereinstimmung</t>
-  </si>
-  <si>
-    <t>= Genauigkeit (accuracy) = (a) Präzision (precision) &amp; (b) Richtigkeit (trueness)</t>
   </si>
   <si>
     <t>Robustheit</t>
@@ -3362,9 +3329,6 @@
     <t>ein O durch S ersetzt COOH -&gt; CSOH, COSH -&gt; verestert mit OH</t>
   </si>
   <si>
-    <t>(Yt)er(by); doch nicht so rein; Er:YAG-Laser in Humanmedizin -&gt; Absorption im Gewebewasser</t>
-  </si>
-  <si>
     <t>H2S-Gruppe</t>
   </si>
   <si>
@@ -3926,20 +3890,6 @@
 &lt;-&gt; Solvay (=Ammoniak-Soda) - Verfahren</t>
   </si>
   <si>
-    <t>basolateral</t>
-  </si>
-  <si>
-    <t>blutseitig (Blut = Basis)
-basal zur Basis gehörend
-lateral … latus lt. Seite</t>
-  </si>
-  <si>
-    <t>luminal</t>
-  </si>
-  <si>
-    <t>zum Lumen gehörig</t>
-  </si>
-  <si>
     <t>lumen</t>
   </si>
   <si>
@@ -4661,9 +4611,6 @@
     <t>Schleuderguss</t>
   </si>
   <si>
-    <t>rotierende Form -&gt; Rohre, Pipelines</t>
-  </si>
-  <si>
     <t>Druckguss</t>
   </si>
   <si>
@@ -4695,18 +4642,6 @@
   <si>
     <t>Mapping Basentriplett &lt;-&gt; AS
 e.g. GAU -&gt; Gly, auch Start-, Stop-Codon</t>
-  </si>
-  <si>
-    <t>aptus lt passen, meros gr. Gebiet
-einzelsträngige DNA- oder RNA-Oligonukleotide (25–70 Basen)
-spezifisches Molekül über 3D-Struktur binden
-pic-mol Bereich -&gt; synth Anti-Körper</t>
-  </si>
-  <si>
-    <t>β-Fructofuranosidase = Saccharase -&gt; Enzym
-spaltet Haushaltszucker (Saccharose) hydrolytisch in Fruchtzucker (Fructose) und Traubenzucker (Glucose) 
--&gt; Mischung heißt Invertzucker (nur schwer kristallisierbar) -&gt; Feuchthaltemittel (E 1103)
-Säugetieren und Menschen: symbiotische Bakterien im Verdauungstrakt</t>
   </si>
   <si>
     <t>1,2,3-Propentricarbonsäure
@@ -5748,12 +5683,6 @@
     <t>Vit K</t>
   </si>
   <si>
-    <t>Pressgut -&gt; Zellen Aufschluss -&gt; Luft entweicht -&gt; Ölabscheidung
-Preßspindel -&gt; Preßzylinder (mit Löchlein oder Spältchen) -&gt; Preßkopf (mit Düse)
-Screw Shaft -&gt; .. -&gt; Press Cage Cap
-Temperatur unter 37 Grad</t>
-  </si>
-  <si>
     <t>Neobiota</t>
   </si>
   <si>
@@ -6318,12 +6247,183 @@
   <si>
     <t>Blues Brothers</t>
   </si>
+  <si>
+    <t>centrifugal casting -&gt; pressurized &amp; directional
+rotierende Form -&gt; Rohre, Pipelines</t>
+  </si>
+  <si>
+    <t>Pressgut -&gt; Zellen Aufschluss -&gt; Luft entweicht -&gt; Ölabscheidung
+Preßspindel -&gt; Preßzylinder (mit Löchlein oder Spältchen) -&gt; Preßkopf (mit Düse) -&gt; Presskuchen durch Düse!!
+Screw Shaft -&gt; .. -&gt; Press Cage Cap
+Temperatur unter 37 Grad</t>
+  </si>
+  <si>
+    <t>β-Fructofuranosidase = Saccharase -&gt; Enzym
+spaltet Haushaltszucker (Saccharose) hydrolytisch in Fruchtzucker (Fructose) und Traubenzucker (Glucose) 
+-&gt; Mischung heißt Invertzucker (nur schwer kristallisierbar) -&gt; Feuchthaltemittel (E 1103)
+symbiotische Bakterien im Verdauungstrakt &lt;-&gt; Säugetieren und Menschen selbst: Glucosidasen (anderer Mechanismus)</t>
+  </si>
+  <si>
+    <t>aptus lt passen, meros gr. Gebiet
+einzelsträngige DNA- oder RNA-Oligonukleotide (25–70 Basen)
+um spezifisches Molekül über 3D-Struktur zu binden
+pic-mol Bereich -&gt; synth Anti-Körper</t>
+  </si>
+  <si>
+    <t>Aconitat
+Aconitsäure
+aconitic acid</t>
+  </si>
+  <si>
+    <t>malus lt. Apfel (Pflanzengattung)
+IUPAC en: propanedioic acid (a dicarboxylic acid)
+Zellgift (hemmt citric cycle)
+im Zuckerrübensaft; entdeckt durch Oxidation von Äpfelsäure (Achtung: Butan-disäure)</t>
+  </si>
+  <si>
+    <t>MFA (mono-fluor-acetic-acid);
+Fluoracetyl-CoA statt Acetyl-CoA im Citratzyklus -&gt; Citrat-Synthese funktioniert -&gt; Enzymblockade Citrat/cis-Aconit</t>
+  </si>
+  <si>
+    <t>Giftköder Nagetiere -&gt; 0,1mg/kg -&gt; rodenticide
+predacide (s. predator) for wolves and coyotes -&gt; livestock protection collars
+secondary toxicity to predator/scavenger birds and mammals
+slightly to practically non-toxic to aquatic invertebrates and fish</t>
+  </si>
+  <si>
+    <t>reversibel / irreversibel / allosterisch (=am anderen Ort, im allosterischen Zentrum, nicht im aktiven) -&gt; Effektoren
+kompetetiv / nicht-kompetetiv / unkompetetiv / Substratüberschuss</t>
+  </si>
+  <si>
+    <t>basal zur Basis gehörend
+lateral … latus lt. Seite
+dem Lumen abgewandte Basis einer Zelle -&gt; alle außer der apikalen (luminalen) Zellseite</t>
+  </si>
+  <si>
+    <t>basolateral
+basal</t>
+  </si>
+  <si>
+    <t>luminal
+apikal</t>
+  </si>
+  <si>
+    <t>zum Lumen gehörig
+an der Spitze befindlich</t>
+  </si>
+  <si>
+    <t>Catechine</t>
+  </si>
+  <si>
+    <t>Flavan / Flavon</t>
+  </si>
+  <si>
+    <t>polyphenolische Pflanzenmetaboliten
+Gruppe Flavonoide (und zwar Flavan-3-ole)</t>
+  </si>
+  <si>
+    <t>Oxan = Tetrahydropyran -&gt; Chroman = 3,4-Dihydro-2H-1-benzopyran -&gt; 2-Phenylchroman -&gt; plus Keton -&gt; 2-Phenylchromen
+sekundärer Pflanzenstoff -&gt; 8000 Verbindungen -&gt; antioxidative Eigenschaften -&gt; kondensierte Tannine -&gt; Rotwein</t>
+  </si>
+  <si>
+    <t>Sensitivität
+Falsch-Negativ-Rate
+Spezifität
+Falsch-Positiv-Rate</t>
+  </si>
+  <si>
+    <t>fallout</t>
+  </si>
+  <si>
+    <t>Nebenprodukt, Abfall</t>
+  </si>
+  <si>
+    <t>speziell: radioaktiver Niederschlag</t>
+  </si>
+  <si>
+    <t>hit rate -&gt; Kranker als krank erkannt -&gt; very responsive to slightest stimulus
+miss rate -&gt; Kranker für gesund gehalten (Type 1)
+correct rejection = kein Fehl-Alarm, kein Phantomschmerz -&gt; scheint gesund (und ist es auch) -&gt; picky eater is very specific
+fallout -&gt; scheint krank, ist aber gesund (Type 2)</t>
+  </si>
+  <si>
+    <t>= (accuracy) = Übereinstimmung = (a) Präzision (precision) &amp; (b) Richtigkeit (trueness)</t>
+  </si>
+  <si>
+    <t>Release Orchestration</t>
+  </si>
+  <si>
+    <t>HW-Engineers &amp; Config-Ops &amp; QA-Test &amp; Devs
+http://devops.com/2016/05/04/humans-machine-release-orchestration/</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>development, testing, and release -&gt; hw &amp; sw engineering</t>
+  </si>
+  <si>
+    <t>Continuous delivery</t>
+  </si>
+  <si>
+    <t>Release management</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>Application release automation
+https://en.wikipedia.org/wiki/Application_release_automation</t>
+  </si>
+  <si>
+    <t>Provisioning</t>
+  </si>
+  <si>
+    <t>configuration
+-&gt; automated -&gt; infrastructure as code -&gt; Puppet, Chef
+https://zeroturnaround.com/rebellabs/5-reasons-its-silly-to-use-provisioning-tools-like-chef-puppet-and-ansible-to-release-applications/</t>
+  </si>
+  <si>
+    <t>extreme programming (XP)
+test-driven development
+source code repository
+-&gt; build servers -&gt; Integration tests</t>
+  </si>
+  <si>
+    <t>Continuous integration</t>
+  </si>
+  <si>
+    <t>deployment pipeline
+delivery aspect -&gt; more quickly and more frequently
+NoSQL -&gt; can eliminate data migrations and schema changes
+Continuous deployment -&gt; may choose not to do it</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>http://electric-cloud.com/wiki/display/releasemanagement/Deployment+Automation+Tools</t>
+  </si>
+  <si>
+    <t>https://github.com/rcoli/spring-boot-jenkins
+http://www.oracle.com/technetwork/articles/java/deployment-tools-2227133.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Yt)er(by); doch nicht so rein; Er:YAG-Laser in Humanmedizin -&gt; Absorption im Gewebewasser
+heating of deep dermis -&gt; fibroblasts stimulated to form new collagen and elastin -&gt; increased turgor &amp; thickness of skin. </t>
+  </si>
+  <si>
+    <t>Turgor</t>
+  </si>
+  <si>
+    <t>Druck des Zellsafts -&gt; spannt Zellmembran bis umgebende Zellwand</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -6346,6 +6446,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6381,10 +6488,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6436,8 +6544,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7247,8 +7359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7260,146 +7372,154 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1704</v>
+        <v>1686</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1702</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="C5" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C6" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="C7" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="C11" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1703</v>
+        <v>1685</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1705</v>
+        <v>1687</v>
       </c>
       <c r="C12" t="s">
-        <v>1706</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1707</v>
+        <v>1689</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1708</v>
+        <v>1690</v>
       </c>
       <c r="C13" t="s">
-        <v>1709</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1736</v>
+        <v>1718</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1737</v>
+        <v>1719</v>
       </c>
       <c r="C14" t="s">
-        <v>1738</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1741</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -7436,7 +7556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7646,10 +7768,10 @@
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1695</v>
+        <v>1677</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1696</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -7673,7 +7795,7 @@
         <v>699</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1697</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7697,7 +7819,7 @@
         <v>704</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1698</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -7721,15 +7843,15 @@
         <v>709</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1699</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>1700</v>
+        <v>1682</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1701</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7746,9 +7868,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7846,194 +7966,194 @@
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1520</v>
+        <v>1503</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1522</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1521</v>
+        <v>1504</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1523</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8064,226 +8184,226 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1563</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1560</v>
+        <v>1543</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1562</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1561</v>
+        <v>1544</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1564</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1565</v>
+        <v>1548</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1566</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1567</v>
+        <v>1550</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1568</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1569</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1546</v>
+        <v>1529</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1548</v>
+        <v>1531</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1558</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1549</v>
+        <v>1532</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1550</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1552</v>
+        <v>1535</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1553</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1554</v>
+        <v>1537</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1555</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1551</v>
+        <v>1534</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1556</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1557</v>
+        <v>1540</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1559</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1570</v>
+        <v>1553</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1571</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1572</v>
+        <v>1555</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1577</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1573</v>
+        <v>1556</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1574</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1575</v>
+        <v>1558</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1576</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1578</v>
+        <v>1561</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1579</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1580</v>
+        <v>1563</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1581</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1582</v>
+        <v>1565</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1583</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1584</v>
+        <v>1567</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1585</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1586</v>
+        <v>1569</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1587</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8315,114 +8435,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1592</v>
+        <v>1575</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1594</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1593</v>
+        <v>1576</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1595</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1596</v>
+        <v>1579</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1619</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1615</v>
+        <v>1597</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1616</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1618</v>
+        <v>1600</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1617</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1642</v>
+        <v>1624</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1643</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1644</v>
+        <v>1626</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1645</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1646</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1640</v>
+        <v>1622</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1641</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1632</v>
+        <v>1614</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1634</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1633</v>
+        <v>1615</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1635</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1636</v>
+        <v>1618</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1637</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1639</v>
+        <v>1621</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1638</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1647</v>
+        <v>1629</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1648</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8473,26 +8593,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
@@ -8574,10 +8694,10 @@
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1320</v>
+        <v>1303</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1321</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -8585,7 +8705,7 @@
         <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1319</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8702,82 +8822,82 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1497</v>
+        <v>1480</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1498</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1500</v>
+        <v>1483</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1504</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1501</v>
+        <v>1484</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1503</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1502</v>
+        <v>1485</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
@@ -8798,7 +8918,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9001,10 +9121,10 @@
     </row>
     <row r="26" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -9029,122 +9149,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -9169,282 +9289,282 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1455</v>
+        <v>1438</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1456</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1458</v>
+        <v>1441</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1687</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1457</v>
+        <v>1440</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1461</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1459</v>
+        <v>1442</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1460</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1463</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1464</v>
+        <v>1447</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1465</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1466</v>
+        <v>1449</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1467</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1468</v>
+        <v>1451</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1469</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1529</v>
+        <v>1512</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1530</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1470</v>
+        <v>1453</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1531</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1475</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1472</v>
+        <v>1455</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1532</v>
+        <v>1515</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1533</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1477</v>
+        <v>1460</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1478</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1474</v>
+        <v>1457</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1535</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1476</v>
+        <v>1459</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1534</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1479</v>
+        <v>1462</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1480</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1481</v>
+        <v>1464</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1482</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1483</v>
+        <v>1466</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1484</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1485</v>
+        <v>1468</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1488</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1486</v>
+        <v>1469</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1487</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1489</v>
+        <v>1472</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1490</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1491</v>
+        <v>1474</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1493</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1492</v>
+        <v>1475</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1494</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1495</v>
+        <v>1478</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1496</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1525</v>
+        <v>1508</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1526</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1527</v>
+        <v>1510</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1528</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1507</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1513</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1512</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1514</v>
+        <v>1497</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1515</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1516</v>
+        <v>1499</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1517</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1518</v>
+        <v>1501</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1519</v>
+        <v>1502</v>
       </c>
     </row>
   </sheetData>
@@ -9467,66 +9587,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -9539,9 +9659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9551,109 +9669,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1712</v>
+        <v>1694</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1713</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1711</v>
+        <v>1693</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1710</v>
+        <v>1692</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1714</v>
+        <v>1696</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1715</v>
+        <v>1697</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1716</v>
+        <v>1698</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1723</v>
+        <v>1705</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1719</v>
+        <v>1701</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1720</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1717</v>
+        <v>1699</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1718</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1721</v>
+        <v>1703</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1722</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1724</v>
+        <v>1706</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1726</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1725</v>
+        <v>1707</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1731</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1727</v>
+        <v>1709</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1728</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1729</v>
+        <v>1711</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1730</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1732</v>
+        <v>1714</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1733</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1734</v>
+        <v>1716</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1735</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9716,122 +9834,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1665</v>
+        <v>1647</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1666</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1663</v>
+        <v>1645</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1667</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1664</v>
+        <v>1646</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1668</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1669</v>
+        <v>1651</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1671</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1670</v>
+        <v>1652</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1672</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1673</v>
+        <v>1655</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1674</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1675</v>
+        <v>1657</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1680</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1676</v>
+        <v>1658</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1690</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1688</v>
+        <v>1670</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1689</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1692</v>
+        <v>1674</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1694</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1677</v>
+        <v>1659</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1693</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1679</v>
+        <v>1661</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1678</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1681</v>
+        <v>1663</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1686</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1685</v>
+        <v>1667</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1684</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1682</v>
+        <v>1664</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1683</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -9845,8 +9963,8 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10041,10 +10159,10 @@
     </row>
     <row r="28" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -10172,7 +10290,7 @@
         <v>466</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -10321,18 +10439,18 @@
     </row>
     <row r="69" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -10346,8 +10464,8 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10633,7 +10751,7 @@
         <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10777,7 +10895,7 @@
         <v>396</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1691</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -11108,18 +11226,18 @@
     </row>
     <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1624</v>
+        <v>1606</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1631</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1625</v>
+        <v>1607</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1630</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>
@@ -11325,12 +11443,12 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>309</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>958</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -11384,8 +11502,8 @@
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11399,7 +11517,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11455,7 +11573,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11556,74 +11674,74 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1589</v>
+        <v>1572</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1590</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1588</v>
+        <v>1571</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1591</v>
+        <v>1574</v>
       </c>
     </row>
   </sheetData>
@@ -11634,7 +11752,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -11644,412 +11762,503 @@
     <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" display="http://www.oracle.com/technetwork/articles/java/deployment-tools-2227133.html"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -12058,7 +12267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -12072,26 +12281,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12115,7 +12324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -12129,154 +12338,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -12290,93 +12499,6 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1600</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1602</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1606</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12388,7 +12510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12398,69 +12522,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>806</v>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>1738</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>807</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -12468,151 +12592,151 @@
         <v>810</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>811</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -12623,11 +12747,96 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12798,34 +13007,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -12837,7 +13046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:B39"/>
@@ -12929,7 +13138,7 @@
         <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12937,7 +13146,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12950,7 +13159,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -12958,10 +13167,10 @@
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -12969,7 +13178,7 @@
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -12982,127 +13191,127 @@
     </row>
     <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1335</v>
+        <v>1318</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>880</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -13115,7 +13324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
@@ -13131,154 +13340,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1620</v>
+        <v>1602</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1621</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1622</v>
+        <v>1604</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1623</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -13332,7 +13541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -13348,50 +13557,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1626</v>
+        <v>1608</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1627</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1628</v>
+        <v>1610</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1629</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13444,7 +13653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -13460,10 +13669,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13471,111 +13680,111 @@
         <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -13583,55 +13792,55 @@
         <v>506</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1653</v>
+        <v>1635</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1658</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1654</v>
+        <v>1636</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1656</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1655</v>
+        <v>1637</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1657</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1659</v>
+        <v>1641</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1660</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1661</v>
+        <v>1643</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1662</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -13673,7 +13882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
@@ -13689,90 +13898,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1332</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1330</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1331</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1324</v>
+        <v>1307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1323</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1326</v>
+        <v>1309</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1325</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1327</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1328</v>
+        <v>1311</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1329</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -13831,7 +14040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
@@ -13847,130 +14056,130 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1333</v>
+        <v>1316</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1334</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1342</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1338</v>
+        <v>1321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1339</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1340</v>
+        <v>1323</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1341</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1347</v>
+        <v>1330</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1343</v>
+        <v>1326</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1345</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1344</v>
+        <v>1327</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -13978,39 +14187,39 @@
         <v>710</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1382</v>
+        <v>1365</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1649</v>
+        <v>1631</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1652</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1650</v>
+        <v>1632</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1651</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14070,7 +14279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -14085,106 +14294,106 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14243,13 +14452,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14335,7 +14544,7 @@
         <v>376</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1317</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14359,7 +14568,7 @@
         <v>383</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1318</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14443,7 +14652,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:B34"/>
@@ -14641,160 +15001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>988</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>990</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:B22"/>
@@ -14986,7 +15193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
@@ -15000,42 +15207,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>1536</v>
+        <v>1519</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1537</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1543</v>
+        <v>1526</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1542</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1544</v>
+        <v>1527</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1545</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1539</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1540</v>
+        <v>1523</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1541</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15123,9 +15330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15135,69 +15340,69 @@
   <sheetData>
     <row r="1" spans="1:3" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1309</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1310</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15218,379 +15423,6 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>767</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15602,45 +15434,444 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1312</v>
+        <v>737</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1313</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1014</v>
+        <v>1725</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1102</v>
+        <v>958</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>959</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1734</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1103</v>
+        <v>1736</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1104</v>
+        <v>1735</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1105</v>
+        <v>1737</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.6640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1733</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1315</v>
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15707,82 +15938,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1385</v>
+        <v>1368</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1386</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1387</v>
+        <v>1370</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1388</v>
+        <v>1371</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1394</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1399</v>
+        <v>1382</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1400</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1395</v>
+        <v>1378</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1397</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1404</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -15790,31 +16021,31 @@
         <v>669</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1409</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1410</v>
+        <v>1393</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1411</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1782">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -4877,12 +4877,6 @@
     <t>Härtung</t>
   </si>
   <si>
-    <t>meta-stabil -&gt; technisch langsam -&gt; Fe &amp; Fe3C &lt;-&gt; seehhr langsam -&gt; Fe &amp; C &lt;-&gt; schnell -&gt; Erhaltung von Hoch-Temp Strukturen bei Raum-Temp
-Mischkristall -&gt; Kohlenstoff vollständig im Eisen-Kristall eingelagert (!!)
-Phase -&gt; Mischung der Rand-Bereiche -&gt; feine Schichten
-https://www.youtube.com/watch?v=rRomht9QlWQ -&gt; 5:50, 6:35</t>
-  </si>
-  <si>
     <t>Anlassen</t>
   </si>
   <si>
@@ -5342,9 +5336,6 @@
     <t>Oxidation States</t>
   </si>
   <si>
-    <t>Oxidationsstufen</t>
-  </si>
-  <si>
     <t>Ferrous</t>
   </si>
   <si>
@@ -6417,6 +6408,92 @@
   </si>
   <si>
     <t>Druck des Zellsafts -&gt; spannt Zellmembran bis umgebende Zellwand</t>
+  </si>
+  <si>
+    <t>Oxidationsstufen -&gt; Oxide &amp; Salze</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Mangan -&gt; sehr stabile Mangan-Sauerstoff-Verbindungen -&gt; Mn2+ -&gt; 4s empty, half 3d orbitals</t>
+  </si>
+  <si>
+    <t>Ferromangan</t>
+  </si>
+  <si>
+    <t>selbst auch wieder Legierungszusatz  -&gt; Stahl
+stabile Mangan-Sauerstoff-Verbindungen -&gt; desoxidierend (wie Al &amp; Si) und verstärkt die Wirkung dieser Elemente
+verhindert Bildung des leicht schmelzenden Eisensulfides -&gt; entschwefelnd
+Löslichkeit von Stickstoff im Stahl erhöht -&gt; Austenit-Bildung fördert -&gt; rostfreie Stähle
+Stahl -&gt; Härtbarkeit erhöht</t>
+  </si>
+  <si>
+    <t>Stranggießen</t>
+  </si>
+  <si>
+    <t>Strangführungsrollen</t>
+  </si>
+  <si>
+    <t>erstarrte Schale (wenige Zentimeter) Dicke -&gt; Gießbogen (Radius 10 m)
+Ausbauchen (ferrostatischer Druck) -&gt; höchste Beanspruchung -&gt; zentraler Bauteil</t>
+  </si>
+  <si>
+    <t>Regulation
+Gießspiegel</t>
+  </si>
+  <si>
+    <t>Gießpulver</t>
+  </si>
+  <si>
+    <t>Gießpulver -&gt; auf den Gießspiegel aufgebracht -&gt; Schlacke
+verhindert Reoxidation der Schmelze
+bindet aufgestiegene Unreinheiten
+Schmiermittel zwischen erstarrter Schale &amp; Kokille</t>
+  </si>
+  <si>
+    <t>Gießspiegel -&gt; dynamische Gleichgewicht
+Stopfen / Schieber oder
+elektromagnetisch gebremst oder gerührt
+Kokille (z. B. Kupfer- und Nickelplatten) -&gt; gekühlte Wänden
+Anbackungen durch Tonerde (Al2O3) -&gt; Argon gespült
+Kokille -&gt; oszillierend bewegt -&gt; Transportvorgang unterstützt</t>
+  </si>
+  <si>
+    <t>continuous casting = strand casting -&gt; molten metal -&gt; solidified into a "semifinished" billet, bloom, or slab
+&lt;-&gt; stationary molds
+Schmelze -&gt; Bodenablass (Ausguss) -&gt; Schieber -&gt; Verteiler (Puffergefäß)
+Luftsauerstoff -&gt; Schlackeschicht (meist Reisschalenasche)
+Tauchrohr (auch Gießrohr genannt) -&gt; Kokille (=Gussform)
+Gießspiegel -&gt; reguliert &amp; Gießpulver aufgebracht. 
+Gießbogen -&gt; Luft-/Wasserbesprühung -&gt; Kühlung (sekundär)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XTU0Z-FkhtU#t=581.941</t>
+  </si>
+  <si>
+    <t>Ring Rolling</t>
+  </si>
+  <si>
+    <t>http://www.industrystock.de/de/news/detail/1561</t>
+  </si>
+  <si>
+    <t>Gießspiegel-messsystem</t>
+  </si>
+  <si>
+    <t>meta-stabil -&gt; technisch langsam -&gt; Fe &amp; Fe3C &lt;-&gt; seehhr langsam -&gt; Fe &amp; C &lt;-&gt; schnell -&gt; Erhaltung von Hoch-Temp Strukturen bei Raum-Temp
+Mischkristall -&gt; Kohlenstoff vollständig im Eisen-Kristall eingelagert (!!)
+Phase -&gt; Mischung der Rand-Bereiche -&gt; feine Schichten</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rRomht9QlWQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 5:50, 6:35</t>
+  </si>
+  <si>
+    <t>29.9.
+2.10.</t>
   </si>
 </sst>
 </file>
@@ -6456,12 +6533,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -6492,7 +6575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6545,6 +6628,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6875,13 +6961,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7033260</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>8382117</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>289645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7386,10 +7472,10 @@
         <v>904</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,46 +7565,46 @@
     </row>
     <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>1685</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>1687</v>
-      </c>
       <c r="C12" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C13" t="s">
         <v>1689</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C14" t="s">
         <v>1718</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C15" t="s">
         <v>1739</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7768,10 +7854,10 @@
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -7795,7 +7881,7 @@
         <v>699</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7819,7 +7905,7 @@
         <v>704</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -7843,15 +7929,15 @@
         <v>709</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8094,18 +8180,18 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1503</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1504</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8235,39 +8321,39 @@
         <v>892</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1543</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8275,135 +8361,135 @@
         <v>893</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1540</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8435,58 +8521,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1575</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1576</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8494,55 +8580,55 @@
         <v>926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1614</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1615</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8640,10 +8726,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8822,89 +8908,97 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1481</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1484</v>
+        <v>1762</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1486</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="66" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9121,10 +9215,10 @@
     </row>
     <row r="26" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1388</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -9149,122 +9243,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1424</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1422</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1426</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1420</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1430</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1428</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>1418</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1408</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1410</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1412</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1414</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1416</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1417</v>
       </c>
     </row>
   </sheetData>
@@ -9275,10 +9369,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9289,282 +9383,287 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1436</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1438</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>1442</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>1445</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1447</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1449</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1451</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>1455</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1456</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1462</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1464</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1466</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1469</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1472</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1478</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1502</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="22" t="s">
+        <v>1781</v>
       </c>
     </row>
   </sheetData>
@@ -9669,109 +9768,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1706</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9834,122 +9933,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1651</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1653</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1652</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1674</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1676</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
@@ -10895,7 +10994,7 @@
         <v>396</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -11226,18 +11325,18 @@
     </row>
     <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
   </sheetData>
@@ -11448,7 +11547,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -11730,18 +11829,18 @@
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
   </sheetData>
@@ -11764,66 +11863,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>1757</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12573,10 +12672,10 @@
     </row>
     <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -12592,7 +12691,7 @@
         <v>810</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12759,66 +12858,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1584</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1585</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13326,10 +13425,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13418,95 +13517,141 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1349</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1397</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+    <row r="21" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1768</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>1774</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -13525,19 +13670,36 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" location="t=581.941"/>
+    <hyperlink ref="B25" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -13589,18 +13751,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13805,42 +13967,42 @@
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1636</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1637</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1639</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14056,7 +14218,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1337</v>
@@ -14152,34 +14314,34 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1356</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1354</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1358</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14187,39 +14349,39 @@
         <v>710</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14705,7 +14867,7 @@
         <v>1285</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -14752,10 +14914,10 @@
     </row>
     <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -15207,42 +15369,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15394,7 +15556,7 @@
         <v>792</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -15402,7 +15564,7 @@
         <v>793</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15443,7 +15605,7 @@
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1294</v>
@@ -15473,7 +15635,7 @@
         <v>740</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -15489,7 +15651,7 @@
         <v>743</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -15497,7 +15659,7 @@
         <v>744</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -15577,7 +15739,7 @@
         <v>762</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
   </sheetData>
@@ -15591,7 +15753,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15620,19 +15782,19 @@
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1734</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1736</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1735</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1737</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -15813,7 +15975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -15842,19 +16004,19 @@
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -15868,10 +16030,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15938,82 +16100,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1368</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>1374</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1376</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1382</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1378</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -16021,31 +16183,31 @@
         <v>669</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1391</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1393</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1395</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="18" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
@@ -49,13 +49,14 @@
     <sheet name="math" sheetId="14" r:id="rId40"/>
     <sheet name="energie" sheetId="16" r:id="rId41"/>
     <sheet name="schiff" sheetId="43" r:id="rId42"/>
+    <sheet name="Werkstoffe" sheetId="51" r:id="rId43"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="1798">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -6494,6 +6495,70 @@
   <si>
     <t>29.9.
 2.10.</t>
+  </si>
+  <si>
+    <t>Magnetische
+Werkstoffe</t>
+  </si>
+  <si>
+    <t>Vakuum -&gt; µ0 -&gt;  magnetischen Flussdichte B = µ0 * magnetischen Feldstärke H
+Stoff hat niederes 0&lt;µ&lt;1 -&gt; "verdrängt" Feld -&gt; diamagnetisch -&gt; Supraleiter (0), Kupfer (0,999)
+höheres µ&gt;1 -&gt; "zieht" Feld ins Innere -&gt; paramagnetisch -&gt; 1,001</t>
+  </si>
+  <si>
+    <t>magnetisierbare</t>
+  </si>
+  <si>
+    <t>µ&gt;&gt;1 (bis 300.000)
+nicht-lineare Kurve -&gt; organisation Weiss'scher Bezirke
+leicht wieder zu entmagnetisieren = umpolen -&gt; weich-magnetisch -&gt; schlecht für permanent, aber gut für Trafo
+schwer -&gt; hart-magnetisch</t>
+  </si>
+  <si>
+    <t>Ordnung</t>
+  </si>
+  <si>
+    <t>Elementarmagnete mit magnetischer Ordnung -&gt; Weiss'sche Bezirke
+alle in gleiche Richtung -&gt; ferro-magnetisch -&gt; starke Hysterese -&gt; Koerzitivfeldstärke (x-Achse)
+manche entgegengesetzt -&gt; ferri-magnetisch -&gt; weich-magnetisch
+50/50 orientiert -&gt; antiferro-magnetisch -&gt; keine Fläche innerhalb Hysterese-Schleife</t>
+  </si>
+  <si>
+    <t>Copolymer =
+Heteropolymere</t>
+  </si>
+  <si>
+    <t>verschiedenartige Monomereinheiten
+Statistisch oder Alternierend oder in Blöcken oder mit Seiten-Ketten</t>
+  </si>
+  <si>
+    <t>Metalation</t>
+  </si>
+  <si>
+    <t>a metal atom being attached to a (usually organic) molecule</t>
+  </si>
+  <si>
+    <t>Mizelle</t>
+  </si>
+  <si>
+    <t>grenzflächenaktiven Substanzen -&gt; hydrophober Effekt -&gt; spontan zusammengelagert -&gt; Selbstassemblierung</t>
+  </si>
+  <si>
+    <t>Kolloid</t>
+  </si>
+  <si>
+    <t>kolla gr. Leim -&gt; Teilchen oder Tröpfchen -&gt; im Dispersionsmedium (Feststoff, Gas oder Flüssigkeit) fein verteilt
+Brownsche Bewegung -&gt; Blut, Milch -&gt; kolloidale Suspension</t>
+  </si>
+  <si>
+    <t>chains of metal
+nanoparticles</t>
+  </si>
+  <si>
+    <t>"Using Polystyrene-block-poly(acrylic acid)-coated Metal Nanoparticles as Monomers for Their Homo- and Co-polymerization"
+1) Co-Polymer -&gt; Block -&gt; PS &amp; PAA -&gt; PS-b-PAA
+2) Nanoparticle within Colloid
+-&gt; Metalation -&gt; Nano-Particles -&gt; 3nm</t>
   </si>
 </sst>
 </file>
@@ -6575,7 +6640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6632,6 +6697,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9371,8 +9439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10063,7 +10131,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10564,7 +10632,7 @@
   <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13819,8 +13887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14005,20 +14073,45 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1789</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1791</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1797</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -14048,9 +14141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15488,6 +15579,131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="125.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="18" activeTab="34"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="15600" windowHeight="9240" tabRatio="765" firstSheet="18" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="english" sheetId="24" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="1798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1800">
   <si>
     <t>Glomerulus</t>
   </si>
@@ -3936,10 +3936,6 @@
     <t>Rhomboeder</t>
   </si>
   <si>
-    <t>=Würfel, ohne rechte Winkel
--&gt; Pyramiden mit drei-eckiger Grundfläche</t>
-  </si>
-  <si>
     <t>=rhomboedrisches
 a1,a2,(a3) -&gt; 120 Grad, c -&gt; 90 Grad
 Trick: Rhomboeder-Schnitt = dreieckig -&gt; trig/rhomb .. abhängig von Achsendefinition</t>
@@ -3971,12 +3967,6 @@
   </si>
   <si>
     <t>Schaum­polystyrol</t>
-  </si>
-  <si>
-    <t>Handelsnamen Styropor (BASF)
-EPS (Expandierter Polystyrol-Hartschaum)
-XPS (Extrudierter Polystyrol-Hartschaum) -&gt; hohe Druckfestigkeit geringen Wasseraufnahme (geschlossene Porosität) -&gt; Dämmung -&gt;
-Styrodur (BASF, grün), Jackodur (JACKON Insulation, lila), Austrotherm XPS (rosa) Styrofoam (Dow Chemical, blau)</t>
   </si>
   <si>
     <t>PEI, Poly(iminoethylen)
@@ -5769,10 +5759,6 @@
     <t>Gießen</t>
   </si>
   <si>
-    <t>ladle -&gt; Gießpfanne
-tundish -&gt; Gießwanne</t>
-  </si>
-  <si>
     <t>Zinn Sn</t>
   </si>
   <si>
@@ -5915,12 +5901,6 @@
     <t>OECD -&gt; Screening Information Dataset</t>
   </si>
   <si>
-    <t>2,4,6-Triamino-1,3,5-triazin
-Melaminharze (Leime, Klebstoffe) &amp; Duroplaste
-HPVC + SIDS
-Milch-Skandal -&gt; China -&gt; Stickstoff -&gt; täuscht höheren Protein-Gehalt vor -&gt; Gefahr von Nierensteinen (300k Erkrankungen)</t>
-  </si>
-  <si>
     <t>Cyanursäure</t>
   </si>
   <si>
@@ -6451,14 +6431,6 @@
 verhindert Reoxidation der Schmelze
 bindet aufgestiegene Unreinheiten
 Schmiermittel zwischen erstarrter Schale &amp; Kokille</t>
-  </si>
-  <si>
-    <t>Gießspiegel -&gt; dynamische Gleichgewicht
-Stopfen / Schieber oder
-elektromagnetisch gebremst oder gerührt
-Kokille (z. B. Kupfer- und Nickelplatten) -&gt; gekühlte Wänden
-Anbackungen durch Tonerde (Al2O3) -&gt; Argon gespült
-Kokille -&gt; oszillierend bewegt -&gt; Transportvorgang unterstützt</t>
   </si>
   <si>
     <t>continuous casting = strand casting -&gt; molten metal -&gt; solidified into a "semifinished" billet, bloom, or slab
@@ -6555,10 +6527,48 @@
 nanoparticles</t>
   </si>
   <si>
+    <t>Handelsnamen Styropor (BASF)
+EPS (Expandierter Polystyrol-Hartschaum)
+XPS (Extrudierter Polystyrol-Hartschaum) -&gt; hohe Druckfestigkeit geringen Wasseraufnahme (geschlossene Porosität) -&gt; Dämmung -&gt;
+Styrodur (BASF, grün), Jackodur (JACKON Insulation, lila), Austrotherm XPS (rosa) Styrofoam (Dow Chemical, blau)
+https://www.youtube.com/watch?v=aiH4zXEE60g</t>
+  </si>
+  <si>
+    <t>2,4,6-Triamino-1,3,5-triazin
+MF + MPF Melaminharze (Leime, Klebstoffe) &amp; Duroplaste -&gt; mit Formaldehyd
+HPVC + SIDS -&gt; Trimerisierung von Harnstoff
+Milch-Skandal -&gt; China -&gt; Stickstoff -&gt; täuscht höheren Protein-Gehalt vor -&gt; Gefahr von Nierensteinen (300k Erkrankungen)
+Kinder-Geschirr -&gt; nicht über 70 Grad erhitzen -&gt; sonst Melamin + Formaldehyd</t>
+  </si>
+  <si>
     <t>"Using Polystyrene-block-poly(acrylic acid)-coated Metal Nanoparticles as Monomers for Their Homo- and Co-polymerization"
 1) Co-Polymer -&gt; Block -&gt; PS &amp; PAA -&gt; PS-b-PAA
 2) Nanoparticle within Colloid
--&gt; Metalation -&gt; Nano-Particles -&gt; 3nm</t>
+-&gt; Metalation -&gt; Nano-Particles -&gt; 3nm
+-&gt; long chains without side branches</t>
+  </si>
+  <si>
+    <t>=Würfel, ohne rechte Winkel
+bemerkenswerte Schnitte -&gt; Pyramiden mit drei-eckiger Grundfläche</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a711cTjJRrA
+https://www.youtube.com/watch?v=H3mQfXtV5Ws#t=684.534069</t>
+  </si>
+  <si>
+    <t>Propeller Manufacturing</t>
+  </si>
+  <si>
+    <t>Gießspiegel -&gt; dynamische Gleichgewicht
+Stopfen / Schieber oder
+elektromagnetisch gebremst oder gerührt
+Kokille (z. B. Kupfer- und Nickelplatten) -&gt; gekühlte Wände
+Anbackungen durch Tonerde (Al2O3) -&gt; Argon gespült
+Kokille -&gt; oszillierend bewegt -&gt; Transportvorgang unterstützt</t>
+  </si>
+  <si>
+    <t>ladle -&gt; Gießpfanne (Transport-Behälter)
+tundish -&gt; Gießwanne (Buffer-Behälter -&gt; etwas abgekühlt)</t>
   </si>
 </sst>
 </file>
@@ -7540,10 +7550,10 @@
         <v>904</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7587,21 +7597,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C7" t="s">
         <v>1272</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7633,46 +7643,46 @@
     </row>
     <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="C12" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="C13" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="C14" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="C15" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7922,10 +7932,10 @@
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -7949,7 +7959,7 @@
         <v>699</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7973,7 +7983,7 @@
         <v>704</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -7997,15 +8007,15 @@
         <v>709</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8248,18 +8258,18 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>1501</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1504</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8389,39 +8399,39 @@
         <v>892</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1541</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8429,135 +8439,135 @@
         <v>893</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1538</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8589,58 +8599,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1574</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8648,55 +8658,55 @@
         <v>926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8848,10 +8858,10 @@
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -8859,7 +8869,7 @@
         <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -8976,50 +8986,50 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1482</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9283,10 +9293,10 @@
     </row>
     <row r="26" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -9311,122 +9321,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1431</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1432</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>
@@ -9451,287 +9461,287 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1474</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
     </row>
   </sheetData>
@@ -9836,109 +9846,109 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10001,122 +10011,122 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1644</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
     </row>
   </sheetData>
@@ -11062,7 +11072,7 @@
         <v>396</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -11393,18 +11403,18 @@
     </row>
     <row r="32" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
   </sheetData>
@@ -11615,7 +11625,7 @@
         <v>309</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -11684,7 +11694,7 @@
         <v>130</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11889,26 +11899,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
   </sheetData>
@@ -11931,66 +11941,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12022,410 +12032,410 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
   </sheetData>
@@ -12448,26 +12458,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12505,154 +12515,154 @@
   <sheetData>
     <row r="1" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -12701,7 +12711,7 @@
         <v>796</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -12724,10 +12734,10 @@
     </row>
     <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -12735,15 +12745,15 @@
         <v>800</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1736</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
@@ -12759,7 +12769,7 @@
         <v>810</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12839,15 +12849,15 @@
         <v>822</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="132" x14ac:dyDescent="0.25">
@@ -12926,66 +12936,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1582</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1583</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13398,7 +13408,7 @@
     </row>
     <row r="22" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>922</v>
@@ -13435,7 +13445,7 @@
     </row>
     <row r="27" spans="1:2" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>882</v>
@@ -13443,10 +13453,10 @@
     </row>
     <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -13495,8 +13505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13547,182 +13557,187 @@
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1341</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1342</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1603</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1772</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1796</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -13790,7 +13805,7 @@
         <v>1104</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1105</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -13798,39 +13813,39 @@
         <v>1103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -13887,9 +13902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13966,7 +13979,7 @@
         <v>1076</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
@@ -14006,7 +14019,7 @@
         <v>1081</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14022,95 +14035,95 @@
         <v>506</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>1114</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1638</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>1794</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -14154,7 +14167,7 @@
         <v>894</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -14162,7 +14175,7 @@
         <v>973</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="79.2" x14ac:dyDescent="0.25">
@@ -14170,7 +14183,7 @@
         <v>974</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
@@ -14191,18 +14204,18 @@
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -14210,31 +14223,31 @@
         <v>1009</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14309,90 +14322,90 @@
   <sheetData>
     <row r="1" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>1326</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -14400,39 +14413,39 @@
         <v>1033</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14440,39 +14453,39 @@
         <v>710</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>1629</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14797,7 +14810,7 @@
         <v>376</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -14821,7 +14834,7 @@
         <v>383</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14946,28 +14959,28 @@
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C6" s="5"/>
     </row>
@@ -14981,7 +14994,7 @@
     </row>
     <row r="8" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>1001</v>
@@ -14989,26 +15002,26 @@
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -15460,42 +15473,42 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -15593,26 +15606,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -15721,7 +15734,7 @@
         <v>782</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -15756,7 +15769,7 @@
         <v>789</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15772,7 +15785,7 @@
         <v>792</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -15780,7 +15793,7 @@
         <v>793</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -15821,10 +15834,10 @@
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -15851,7 +15864,7 @@
         <v>740</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -15867,7 +15880,7 @@
         <v>743</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -15875,7 +15888,7 @@
         <v>744</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
@@ -15955,7 +15968,7 @@
         <v>762</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
   </sheetData>
@@ -15998,19 +16011,19 @@
     </row>
     <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -16163,10 +16176,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -16203,10 +16216,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
@@ -16214,25 +16227,25 @@
         <v>1004</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -16241,15 +16254,15 @@
         <v>1092</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -16316,82 +16329,82 @@
   <sheetData>
     <row r="1" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1369</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1370</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="39.6" x14ac:dyDescent="0.25">
@@ -16399,31 +16412,31 @@
         <v>669</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">

--- a/reading/phys/phys.xlsx
+++ b/reading/phys/phys.xlsx
@@ -13505,8 +13505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
